--- a/data/flux/2018-suspended.xlsx
+++ b/data/flux/2018-suspended.xlsx
@@ -264,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,6 +274,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,10 +313,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -342,1287 +346,1287 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.88</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>5.190942375</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>-26.3</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>5.91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.32</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>2.537303913</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>-28.51</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>8.34</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="3" t="n">
         <v>7.94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>2.548558708</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>-27.72</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>6.49</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>7.29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.53</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>3.375028844</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="3" t="n">
         <v>-27.76</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>6.48</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>6.41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>3.273046056</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>-26.11</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>6.47</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>7.14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.41</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="3" t="n">
         <v>3.208038308</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>-26.63</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>6.21</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>7.74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.43</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <v>2.854014201</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>-27.63</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>5.11</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>6.71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.21</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="3" t="n">
         <v>2.058519311</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="3" t="n">
         <v>-26.82</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="3" t="n">
         <v>7.78</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>9.58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.21</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="3" t="n">
         <v>2.005552006</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="3" t="n">
         <v>-27.08</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>9.03</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="3" t="n">
         <v>9.42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.19</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="3" t="n">
         <v>1.910628591</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="3" t="n">
         <v>-27.85</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="3" t="n">
         <v>9.67</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="3" t="n">
         <v>10.26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>175</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>175</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.687726498</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="3" t="n">
         <v>-27.97</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>9.81</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="3" t="n">
         <v>10.55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.780857793</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="3" t="n">
         <v>-27.22</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="n">
         <v>8.99</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="3" t="n">
         <v>10.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>225</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.425552738</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="3" t="n">
         <v>-24.46</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="3" t="n">
         <v>9.67</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="3" t="n">
         <v>10.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="3" t="n">
         <v>1.278079463</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="3" t="n">
         <v>-25.88</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="3" t="n">
         <v>8.72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>275</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.238720077</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="3" t="n">
         <v>-26.66</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="3" t="n">
         <v>10.21</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="3" t="n">
         <v>8.78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.13</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.185386078</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="3" t="n">
         <v>-26.55</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="3" t="n">
         <v>10.07</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="3" t="n">
         <v>9.06</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>325</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>325</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="3" t="n">
         <v>0.11</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="3" t="n">
         <v>1.084634211</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="3" t="n">
         <v>-26.5</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="3" t="n">
         <v>10.07</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="3" t="n">
         <v>10.21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="3" t="n">
         <v>1.152263596</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="3" t="n">
         <v>-26.75</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="3" t="n">
         <v>10.38</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="3" t="n">
         <v>9.88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>400</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="3" t="n">
         <v>0.08</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="3" t="n">
         <v>0.9310699952</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="3" t="n">
         <v>-26.91</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="3" t="n">
         <v>9.82</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="3" t="n">
         <v>11.45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>450</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.11</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="3" t="n">
         <v>0.9859089247</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="3" t="n">
         <v>-27.72</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="3" t="n">
         <v>9.67</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="3" t="n">
         <v>8.78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="3" t="n">
         <v>1.357758485</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="3" t="n">
         <v>-26.03</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="3" t="n">
         <v>9.67</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="3" t="n">
         <v>9.2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D23" s="3" t="n">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>600</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.08</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="3" t="n">
         <v>0.8555878373</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="3" t="n">
         <v>-28.78</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="3" t="n">
         <v>9.43</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="3" t="n">
         <v>10.3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.44</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="3" t="n">
         <v>2.831965159</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="3" t="n">
         <v>-25.21</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="3" t="n">
         <v>6.92</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="3" t="n">
         <v>6.44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.84</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="3" t="n">
         <v>5.233088235</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="3" t="n">
         <v>-24.35</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="3" t="n">
         <v>7.63</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="3" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="3" t="n">
         <v>2.606831298</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="3" t="n">
         <v>-27.14</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="3" t="n">
         <v>4.52</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="3" t="n">
         <v>6.59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.26</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="3" t="n">
         <v>2.515737851</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="3" t="n">
         <v>-24.24</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="3" t="n">
         <v>6.15</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="3" t="n">
         <v>9.65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.11</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="3" t="n">
         <v>1.358837776</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="3" t="n">
         <v>-25.66</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="3" t="n">
         <v>9.45</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="3" t="n">
         <v>12.28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.27</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="3" t="n">
         <v>2.197097546</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="3" t="n">
         <v>-25.38</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="3" t="n">
         <v>6.45</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="3" t="n">
         <v>8.24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.820701577</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="3" t="n">
         <v>-27.22</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="3" t="n">
         <v>5.45</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="3" t="n">
         <v>7.25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="6" t="n">
         <v>125</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="3" t="n">
         <v>0.17</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="3" t="n">
         <v>2.305987558</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="3" t="n">
         <v>-24.78</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="3" t="n">
         <v>8.16</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="3" t="n">
         <v>13.24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="3" t="n">
         <v>1.765902899</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="3" t="n">
         <v>-23.97</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="3" t="n">
         <v>8.04</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="3" t="n">
         <v>11.03</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D33" s="0" t="n">
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D33" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="6" t="n">
         <v>175</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="3" t="n">
         <v>1.718462836</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="3" t="n">
         <v>-24.13</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="3" t="n">
         <v>9.26</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="3" t="n">
         <v>11.25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="3" t="n">
         <v>1.580948363</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="3" t="n">
         <v>-24.35</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="3" t="n">
         <v>7.57</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="3" t="n">
         <v>10.93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D35" s="0" t="n">
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="6" t="n">
         <v>225</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="3" t="n">
         <v>1.318980642</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="3" t="n">
         <v>-26.77</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="3" t="n">
         <v>8.65</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="3" t="n">
         <v>10.96</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D36" s="0" t="n">
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D36" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="3" t="n">
         <v>1.289547587</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="3" t="n">
         <v>-25.87</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="3" t="n">
         <v>8.11</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="3" t="n">
         <v>11.1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D37" s="0" t="n">
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D37" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.312470405</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="3" t="n">
         <v>-24.16</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="3" t="n">
         <v>9.18</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="3" t="n">
         <v>9.58</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D38" s="0" t="n">
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="3" t="n">
         <v>270</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="6" t="n">
         <v>270</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="3" t="n">
         <v>1.175567571</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="3" t="n">
         <v>-25.33</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="3" t="n">
         <v>8.91</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="3" t="n">
         <v>8.37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D39" s="0" t="n">
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="6" t="n">
         <v>280</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.13</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="3" t="n">
         <v>1.175536433</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="3" t="n">
         <v>-25.14</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="3" t="n">
         <v>8.84</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="3" t="n">
         <v>8.85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D40" s="0" t="n">
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="3" t="n">
         <v>290</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="6" t="n">
         <v>290</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="3" t="n">
         <v>1.15247721</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="3" t="n">
         <v>-26.88</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="3" t="n">
         <v>8.48</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="3" t="n">
         <v>9.57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D41" s="0" t="n">
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D41" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.11</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="3" t="n">
         <v>1.172242831</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="3" t="n">
         <v>-26.71</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="3" t="n">
         <v>7.76</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="3" t="n">
         <v>10.89</v>
       </c>
     </row>
